--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FEB2A-282A-4845-8B77-CEDFFE9E4F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -193,30 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-01: 代償後謄本
-02: 火險單
-03: 借款申請書
-04: 顧客資料表
-05: 公司章程
-06: 公司執照
-07: 董監名冊
-08: 股東名冊
-09: 會計師簽證或期中報表
-10: 公司戶營業稅或所得稅申報資料
-11: 資金運用計畫書
-12: 土地使用計畫書
-13: 建築執照
-14: 董監會借款決議紀錄
-15: 個人戶所得稅申報資料
-16: 債權憑證補章
-17: 補辦對保手續
-18: 謄本
-20: 定存單
-99: 其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NotYetCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,12 +277,36 @@
   <si>
     <t>CustNo asc,FacmNo asc,YetDate asc</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:代償後謄本
+02:火險單
+03:借款申請書
+04:顧客資料表
+05:公司章程
+06:公司執照
+07:董監名冊
+08:股東名冊
+09:會計師簽證或期中報表
+10:公司戶營業稅或所得稅申報資料
+11:資金運用計畫書
+12:土地使用計畫書
+13:建築執照
+14:董監會借款決議紀錄
+15:個人戶所得稅申報資料
+16:債權憑證補章
+17:補辦對保手續
+18:謄本
+20:定存單
+99:其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -475,98 +485,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,6 +671,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -696,6 +723,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -871,340 +915,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="26" style="30" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="9"/>
+    <col min="1" max="1" width="4.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26" style="24" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="27" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>7</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="21">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="21">
         <f t="shared" ref="A11:A19" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>48</v>
+      <c r="G11" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="21">
         <v>40</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>8</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="21">
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <v>8</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="21">
         <v>7</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="D15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="21">
         <v>80</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="21">
         <v>8</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="21">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="21">
         <v>6</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <v>6</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1223,10 +1267,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -1252,43 +1296,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanNotYet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FEB2A-282A-4845-8B77-CEDFFE9E4F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5F4CF-7116-4142-8A0F-DA30EF4109DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20880" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>備註說明</t>
   </si>
@@ -84,9 +84,6 @@
     <t>未齊件代碼</t>
   </si>
   <si>
-    <t>未齊件說明</t>
-  </si>
-  <si>
     <t>建檔日期時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +201,6 @@
   </si>
   <si>
     <t>NotYetCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotYetItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -916,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -935,14 +928,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -957,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
@@ -965,14 +958,14 @@
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="14"/>
@@ -980,14 +973,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
@@ -995,7 +988,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="15"/>
@@ -1006,7 +999,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="15"/>
@@ -1017,7 +1010,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="15"/>
@@ -1054,13 +1047,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="21">
         <v>7</v>
@@ -1073,13 +1066,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
@@ -1088,51 +1081,51 @@
     </row>
     <row r="11" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
-        <f t="shared" ref="A11:A19" si="0">A10+1</f>
+        <f>A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="21">
         <v>2</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="21">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>34</v>
@@ -1151,104 +1144,88 @@
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="21">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
+        <f t="shared" ref="A15:A18" si="0">A14+1</f>
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>59</v>
+      <c r="B15" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="21">
-        <v>80</v>
-      </c>
-      <c r="G15" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="21">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="21">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E18" s="21">
+        <v>6</v>
       </c>
       <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="21">
-        <v>6</v>
-      </c>
-      <c r="G19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1285,7 +1262,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1296,43 +1273,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
